--- a/SuSS/2023_Sem2_ANL252_Python_4_Biz/1_TMA/Mark Input Sheet ANL252 2023.xlsx
+++ b/SuSS/2023_Sem2_ANL252_Python_4_Biz/1_TMA/Mark Input Sheet ANL252 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem2_ANL252_Python_4_Biz\1_TMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4059D1-A4DC-4630-8F0B-B3EDCBBE1FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A5E94A-3065-4889-9FEC-44AD9E97F5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="-15" windowWidth="10215" windowHeight="13410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -726,13 +726,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2935,7 +2935,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3501,7 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -4304,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65595B27-6401-423C-9E4D-522C6A3E1450}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4313,12 +4313,13 @@
     <col min="1" max="1" width="45" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="20.28515625" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9.140625" style="20" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="20"/>
+    <col min="4" max="7" width="9.140625" style="20" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9.140625" style="20" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -4344,7 +4345,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="23">
@@ -5742,20 +5743,20 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="24">
         <v>82835</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5788,20 +5789,20 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="24">
         <v>102193</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26">
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
